--- a/ru/downloads/data-excel/10.3.1.1a.xlsx
+++ b/ru/downloads/data-excel/10.3.1.1a.xlsx
@@ -1,5 +1,173 @@
 
-<file path=theme/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <bookViews>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+  </sheets>
+  <calcPr calcId="122211"/>
+</workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+  <si>
+    <t>10.3.1.1а Анын ичинде каралган жана канааттандырылган Омбудсменге кайрылуулардын саны</t>
+  </si>
+  <si>
+    <t>10.3.1.1а Количество обращений к Омбудсмену, из них рассмотренных и удовлетворенных</t>
+  </si>
+  <si>
+    <t>10.3.1.1a Number of appeals to the Ombudsman, of which examined and satisfied</t>
+  </si>
+  <si>
+    <t>Көрсөткүчтөрдүн аталышы</t>
+  </si>
+  <si>
+    <t>Наименование показателей</t>
+  </si>
+  <si>
+    <t>Items</t>
+  </si>
+  <si>
+    <t>Жазуу жүзүндөгү кайрылууларыдын саны</t>
+  </si>
+  <si>
+    <t>Количество письменных обращений</t>
+  </si>
+  <si>
+    <t>Number of written appeals</t>
+  </si>
+  <si>
+    <t>Оң чечилгендердин саны</t>
+  </si>
+  <si>
+    <t>Количество положительно решенных</t>
+  </si>
+  <si>
+    <t>Number of positively resolved</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+</sst>
+</file>
+
+<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+  </fonts>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+  </fills>
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+  </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
+</styleSheet>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
     <a:clrScheme name="Стандартная">
@@ -10,39 +178,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -121,145 +289,386 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
-<file path=theme/theme/themeManager.xml><?xml version="1.0" encoding="utf-8"?>
-<a:themeManager xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="36.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+    </row>
+    <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+    </row>
+    <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="5">
+        <v>2007</v>
+      </c>
+      <c r="E3" s="5">
+        <v>2008</v>
+      </c>
+      <c r="F3" s="5">
+        <v>2009</v>
+      </c>
+      <c r="G3" s="5">
+        <v>2010</v>
+      </c>
+      <c r="H3" s="5">
+        <v>2011</v>
+      </c>
+      <c r="I3" s="5">
+        <v>2012</v>
+      </c>
+      <c r="J3" s="5">
+        <v>2013</v>
+      </c>
+      <c r="K3" s="5">
+        <v>2014</v>
+      </c>
+      <c r="L3" s="5">
+        <v>2015</v>
+      </c>
+      <c r="M3" s="5">
+        <v>2016</v>
+      </c>
+      <c r="N3" s="5">
+        <v>2017</v>
+      </c>
+      <c r="O3" s="5">
+        <v>2018</v>
+      </c>
+      <c r="P3" s="6">
+        <v>2019</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2">
+        <v>3014</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2136</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1742</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1862</v>
+      </c>
+      <c r="H4" s="2">
+        <v>2098</v>
+      </c>
+      <c r="I4" s="2">
+        <v>2843</v>
+      </c>
+      <c r="J4" s="2">
+        <v>2466</v>
+      </c>
+      <c r="K4" s="2">
+        <v>2411</v>
+      </c>
+      <c r="L4" s="2">
+        <v>2483</v>
+      </c>
+      <c r="M4" s="2">
+        <v>3800</v>
+      </c>
+      <c r="N4" s="2">
+        <v>3242</v>
+      </c>
+      <c r="O4" s="2">
+        <v>3237</v>
+      </c>
+      <c r="P4" s="7">
+        <v>3923</v>
+      </c>
+      <c r="Q4" s="7">
+        <v>3255</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="3">
+        <v>619</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="3">
+        <v>309</v>
+      </c>
+      <c r="H5" s="3">
+        <v>196</v>
+      </c>
+      <c r="I5" s="3">
+        <v>501</v>
+      </c>
+      <c r="J5" s="3">
+        <v>384</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="3">
+        <v>374</v>
+      </c>
+      <c r="M5" s="3">
+        <v>615</v>
+      </c>
+      <c r="N5" s="3">
+        <v>531</v>
+      </c>
+      <c r="O5" s="3">
+        <v>376</v>
+      </c>
+      <c r="P5" s="9">
+        <v>445</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>343</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ru/downloads/data-excel/10.3.1.1a.xlsx
+++ b/ru/downloads/data-excel/10.3.1.1a.xlsx
@@ -454,18 +454,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="36.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -490,7 +488,7 @@
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
     </row>
-    <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -508,8 +506,11 @@
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
     </row>
-    <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -561,8 +562,17 @@
       <c r="Q3" s="6">
         <v>2020</v>
       </c>
+      <c r="R3" s="6">
+        <v>2021</v>
+      </c>
+      <c r="S3" s="6">
+        <v>2022</v>
+      </c>
+      <c r="T3" s="6">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -614,8 +624,17 @@
       <c r="Q4" s="7">
         <v>3255</v>
       </c>
+      <c r="R4" s="7">
+        <v>4301</v>
+      </c>
+      <c r="S4" s="7">
+        <v>3690</v>
+      </c>
+      <c r="T4" s="7">
+        <v>2620</v>
+      </c>
     </row>
-    <row r="5" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -666,6 +685,15 @@
       </c>
       <c r="Q5" s="9">
         <v>343</v>
+      </c>
+      <c r="R5" s="9">
+        <v>427</v>
+      </c>
+      <c r="S5" s="9">
+        <v>280</v>
+      </c>
+      <c r="T5" s="9">
+        <v>264</v>
       </c>
     </row>
   </sheetData>
